--- a/Code/Results/Cases/Case_3_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_150/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9950742348265829</v>
+        <v>1.027536138225185</v>
       </c>
       <c r="D2">
-        <v>1.018084990881439</v>
+        <v>1.03703178602837</v>
       </c>
       <c r="E2">
-        <v>1.002183949171252</v>
+        <v>1.027616377726966</v>
       </c>
       <c r="F2">
-        <v>1.018638177685965</v>
+        <v>1.045680168218227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045694475948195</v>
+        <v>1.033395596577766</v>
       </c>
       <c r="J2">
-        <v>1.017403279511109</v>
+        <v>1.032693466908313</v>
       </c>
       <c r="K2">
-        <v>1.029297993980548</v>
+        <v>1.039823830686133</v>
       </c>
       <c r="L2">
-        <v>1.013612941735558</v>
+        <v>1.030435586947912</v>
       </c>
       <c r="M2">
-        <v>1.029843819039061</v>
+        <v>1.048447729035884</v>
       </c>
       <c r="N2">
-        <v>1.018848108865795</v>
+        <v>1.034160010082935</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000001494474635</v>
+        <v>1.02856178734663</v>
       </c>
       <c r="D3">
-        <v>1.022037333046122</v>
+        <v>1.037862154393593</v>
       </c>
       <c r="E3">
-        <v>1.006137245448675</v>
+        <v>1.02848874713559</v>
       </c>
       <c r="F3">
-        <v>1.023528899681193</v>
+        <v>1.046746319299607</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047204631626293</v>
+        <v>1.033612040794812</v>
       </c>
       <c r="J3">
-        <v>1.020492118749274</v>
+        <v>1.033358951479768</v>
       </c>
       <c r="K3">
-        <v>1.032395797886915</v>
+        <v>1.040463868273384</v>
       </c>
       <c r="L3">
-        <v>1.016692196754573</v>
+        <v>1.031115544414634</v>
       </c>
       <c r="M3">
-        <v>1.033869321328321</v>
+        <v>1.049324706848221</v>
       </c>
       <c r="N3">
-        <v>1.02194133460998</v>
+        <v>1.034826439718798</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003118743991645</v>
+        <v>1.02922551471639</v>
       </c>
       <c r="D4">
-        <v>1.024537498465492</v>
+        <v>1.038399074575252</v>
       </c>
       <c r="E4">
-        <v>1.008644617378002</v>
+        <v>1.02905367275519</v>
       </c>
       <c r="F4">
-        <v>1.026625925354655</v>
+        <v>1.047436293695722</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048144440768044</v>
+        <v>1.033750170930674</v>
       </c>
       <c r="J4">
-        <v>1.022443007035521</v>
+        <v>1.033789065491503</v>
       </c>
       <c r="K4">
-        <v>1.03434852963399</v>
+        <v>1.04087698736079</v>
       </c>
       <c r="L4">
-        <v>1.018639817204713</v>
+        <v>1.031555331864551</v>
       </c>
       <c r="M4">
-        <v>1.036413278131544</v>
+        <v>1.049891677100311</v>
       </c>
       <c r="N4">
-        <v>1.023894993381364</v>
+        <v>1.035257164541764</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004412892576868</v>
+        <v>1.02950456089175</v>
       </c>
       <c r="D5">
-        <v>1.025575326136572</v>
+        <v>1.038624703213781</v>
       </c>
       <c r="E5">
-        <v>1.009687032287571</v>
+        <v>1.029291273152465</v>
       </c>
       <c r="F5">
-        <v>1.027912330503854</v>
+        <v>1.04772638320882</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048530809882155</v>
+        <v>1.033807779846842</v>
       </c>
       <c r="J5">
-        <v>1.023252106751604</v>
+        <v>1.033969765531233</v>
       </c>
       <c r="K5">
-        <v>1.035157460371423</v>
+        <v>1.041050415937733</v>
       </c>
       <c r="L5">
-        <v>1.01944822874175</v>
+        <v>1.031740172404873</v>
       </c>
       <c r="M5">
-        <v>1.0374687004199</v>
+        <v>1.050129912852077</v>
       </c>
       <c r="N5">
-        <v>1.024705242111848</v>
+        <v>1.035438121196277</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00462924591179</v>
+        <v>1.029551414860641</v>
       </c>
       <c r="D6">
-        <v>1.025748818572249</v>
+        <v>1.038662581802521</v>
       </c>
       <c r="E6">
-        <v>1.009861385731333</v>
+        <v>1.029331173480751</v>
       </c>
       <c r="F6">
-        <v>1.028127426509519</v>
+        <v>1.047775091924488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048595177326464</v>
+        <v>1.033817425591485</v>
       </c>
       <c r="J6">
-        <v>1.023387320869177</v>
+        <v>1.034000098820054</v>
       </c>
       <c r="K6">
-        <v>1.035292590855891</v>
+        <v>1.041079520876213</v>
       </c>
       <c r="L6">
-        <v>1.019583367050828</v>
+        <v>1.031771205226848</v>
       </c>
       <c r="M6">
-        <v>1.03764510021398</v>
+        <v>1.050169906716816</v>
       </c>
       <c r="N6">
-        <v>1.024840648248978</v>
+        <v>1.035468497561848</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003136099840789</v>
+        <v>1.029229243285471</v>
       </c>
       <c r="D7">
-        <v>1.024551417400602</v>
+        <v>1.038402089801005</v>
       </c>
       <c r="E7">
-        <v>1.008658591512962</v>
+        <v>1.029056847169012</v>
       </c>
       <c r="F7">
-        <v>1.026643174830374</v>
+        <v>1.047440169791202</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048149637460767</v>
+        <v>1.033750942515791</v>
       </c>
       <c r="J7">
-        <v>1.022453861199452</v>
+        <v>1.033791480485916</v>
       </c>
       <c r="K7">
-        <v>1.034359385244695</v>
+        <v>1.040879305691977</v>
       </c>
       <c r="L7">
-        <v>1.018650659500475</v>
+        <v>1.031557801894689</v>
       </c>
       <c r="M7">
-        <v>1.036427435326716</v>
+        <v>1.049894860884532</v>
       </c>
       <c r="N7">
-        <v>1.023905862959452</v>
+        <v>1.035259582965746</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9967545382528872</v>
+        <v>1.027882747885628</v>
       </c>
       <c r="D8">
-        <v>1.019432849996825</v>
+        <v>1.037312491897222</v>
       </c>
       <c r="E8">
-        <v>1.003530753996799</v>
+        <v>1.027911106646042</v>
       </c>
       <c r="F8">
-        <v>1.020305387950102</v>
+        <v>1.046040457288618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046212711645017</v>
+        <v>1.033469142973107</v>
       </c>
       <c r="J8">
-        <v>1.018457305160776</v>
+        <v>1.032918473601526</v>
       </c>
       <c r="K8">
-        <v>1.03035587080298</v>
+        <v>1.040040346901974</v>
       </c>
       <c r="L8">
-        <v>1.014663110443006</v>
+        <v>1.030665420903161</v>
       </c>
       <c r="M8">
-        <v>1.031217158868417</v>
+        <v>1.048744209575271</v>
       </c>
       <c r="N8">
-        <v>1.019903631352791</v>
+        <v>1.034385336311445</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9849339055913316</v>
+        <v>1.025510542735222</v>
       </c>
       <c r="D9">
-        <v>1.009952322483036</v>
+        <v>1.035389575205952</v>
       </c>
       <c r="E9">
-        <v>0.9940853275436009</v>
+        <v>1.025895598241836</v>
       </c>
       <c r="F9">
-        <v>1.008590986576471</v>
+        <v>1.043574796385689</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042502966823821</v>
+        <v>1.032957861726546</v>
       </c>
       <c r="J9">
-        <v>1.011030138792206</v>
+        <v>1.031376320476801</v>
       </c>
       <c r="K9">
-        <v>1.022885967793453</v>
+        <v>1.038554145554468</v>
       </c>
       <c r="L9">
-        <v>1.007275100667184</v>
+        <v>1.029091494075282</v>
       </c>
       <c r="M9">
-        <v>1.021546201941882</v>
+        <v>1.046712860598336</v>
       </c>
       <c r="N9">
-        <v>1.012465917556069</v>
+        <v>1.032840993152395</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9766190002439739</v>
+        <v>1.023929404168148</v>
       </c>
       <c r="D10">
-        <v>1.003288459119023</v>
+        <v>1.034105718274481</v>
       </c>
       <c r="E10">
-        <v>0.9874809349985575</v>
+        <v>1.024554272497425</v>
       </c>
       <c r="F10">
-        <v>1.000370935288929</v>
+        <v>1.041931591383823</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039814578065239</v>
+        <v>1.032607138812895</v>
       </c>
       <c r="J10">
-        <v>1.00579199567203</v>
+        <v>1.030345683711826</v>
       </c>
       <c r="K10">
-        <v>1.017598592179816</v>
+        <v>1.037558098574937</v>
       </c>
       <c r="L10">
-        <v>1.00207996474378</v>
+        <v>1.028041270017525</v>
       </c>
       <c r="M10">
-        <v>1.014733495612778</v>
+        <v>1.045356130091488</v>
       </c>
       <c r="N10">
-        <v>1.007220335671839</v>
+        <v>1.031808892764998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9729038077273253</v>
+        <v>1.023244831464019</v>
       </c>
       <c r="D11">
-        <v>1.000313227198661</v>
+        <v>1.033549348352498</v>
       </c>
       <c r="E11">
-        <v>0.984540381912321</v>
+        <v>1.023974027653235</v>
       </c>
       <c r="F11">
-        <v>0.9967036467938021</v>
+        <v>1.041220204313176</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038595545518602</v>
+        <v>1.032452935871061</v>
       </c>
       <c r="J11">
-        <v>1.003448940610967</v>
+        <v>1.029898809474999</v>
       </c>
       <c r="K11">
-        <v>1.015229238930014</v>
+        <v>1.037125560720466</v>
       </c>
       <c r="L11">
-        <v>0.9997598540751178</v>
+        <v>1.027586293624291</v>
       </c>
       <c r="M11">
-        <v>1.011687996400788</v>
+        <v>1.044768062973063</v>
       </c>
       <c r="N11">
-        <v>1.004873953203837</v>
+        <v>1.031361383915498</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9715054841606269</v>
+        <v>1.022990561110058</v>
       </c>
       <c r="D12">
-        <v>0.9991938468636904</v>
+        <v>1.033342620518029</v>
       </c>
       <c r="E12">
-        <v>0.9834352591533146</v>
+        <v>1.023758583251224</v>
       </c>
       <c r="F12">
-        <v>0.9953242512502117</v>
+        <v>1.040955983437414</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038134126194367</v>
+        <v>1.032395307141101</v>
       </c>
       <c r="J12">
-        <v>1.002566731469567</v>
+        <v>1.029732730326469</v>
       </c>
       <c r="K12">
-        <v>1.014336507809434</v>
+        <v>1.036964710536664</v>
       </c>
       <c r="L12">
-        <v>0.998886846425259</v>
+        <v>1.027417262046651</v>
       </c>
       <c r="M12">
-        <v>1.010541582844049</v>
+        <v>1.044549539703221</v>
       </c>
       <c r="N12">
-        <v>1.003990491224265</v>
+        <v>1.031195068915527</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9718062775354505</v>
+        <v>1.023045102495379</v>
       </c>
       <c r="D13">
-        <v>0.9994346153870565</v>
+        <v>1.033386967375862</v>
       </c>
       <c r="E13">
-        <v>0.9836729065018053</v>
+        <v>1.02380479298053</v>
       </c>
       <c r="F13">
-        <v>0.995620931313413</v>
+        <v>1.041012658806033</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038233498243126</v>
+        <v>1.032407684572998</v>
       </c>
       <c r="J13">
-        <v>1.002756517411775</v>
+        <v>1.029768358943694</v>
       </c>
       <c r="K13">
-        <v>1.014528584945622</v>
+        <v>1.036999221874658</v>
       </c>
       <c r="L13">
-        <v>0.9990746273884131</v>
+        <v>1.02745352138582</v>
       </c>
       <c r="M13">
-        <v>1.010788193300424</v>
+        <v>1.04459641770781</v>
       </c>
       <c r="N13">
-        <v>1.004180546684279</v>
+        <v>1.031230748129476</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9727886025305446</v>
+        <v>1.02322381318564</v>
       </c>
       <c r="D14">
-        <v>1.000220994137144</v>
+        <v>1.033532261534441</v>
       </c>
       <c r="E14">
-        <v>0.9844492990969407</v>
+        <v>1.023956217227633</v>
       </c>
       <c r="F14">
-        <v>0.9965899823894069</v>
+        <v>1.041198363324944</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038557582419454</v>
+        <v>1.032448179418586</v>
       </c>
       <c r="J14">
-        <v>1.003376263451571</v>
+        <v>1.029885083158627</v>
       </c>
       <c r="K14">
-        <v>1.015155707426932</v>
+        <v>1.037112268593778</v>
       </c>
       <c r="L14">
-        <v>0.9996879234832351</v>
+        <v>1.027572322094416</v>
       </c>
       <c r="M14">
-        <v>1.011593548153072</v>
+        <v>1.044750001584641</v>
       </c>
       <c r="N14">
-        <v>1.004801172834538</v>
+        <v>1.031347638106183</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9733913815942464</v>
+        <v>1.023333924116115</v>
       </c>
       <c r="D15">
-        <v>1.000703596307635</v>
+        <v>1.033621773162674</v>
       </c>
       <c r="E15">
-        <v>0.9849259319411054</v>
+        <v>1.02404952589924</v>
       </c>
       <c r="F15">
-        <v>0.9971847366814134</v>
+        <v>1.04131278465826</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03875610831224</v>
+        <v>1.032473083142031</v>
       </c>
       <c r="J15">
-        <v>1.003756513319969</v>
+        <v>1.029956988859914</v>
       </c>
       <c r="K15">
-        <v>1.015540402131887</v>
+        <v>1.037181895724155</v>
       </c>
       <c r="L15">
-        <v>1.000064290222946</v>
+        <v>1.027645514757383</v>
       </c>
       <c r="M15">
-        <v>1.012087716669072</v>
+        <v>1.044844617899943</v>
       </c>
       <c r="N15">
-        <v>1.005181962701364</v>
+        <v>1.031419645921813</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9768630558833339</v>
+        <v>1.023974838477318</v>
       </c>
       <c r="D16">
-        <v>1.003483960898856</v>
+        <v>1.034142633250043</v>
       </c>
       <c r="E16">
-        <v>0.9876743262765618</v>
+        <v>1.024592793239414</v>
       </c>
       <c r="F16">
-        <v>1.000611964597478</v>
+        <v>1.041978806588915</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039894293427709</v>
+        <v>1.032617323529973</v>
       </c>
       <c r="J16">
-        <v>1.00594586483884</v>
+        <v>1.030375328626391</v>
       </c>
       <c r="K16">
-        <v>1.017754101282638</v>
+        <v>1.037586778532381</v>
       </c>
       <c r="L16">
-        <v>1.002232404690711</v>
+        <v>1.02807146064412</v>
       </c>
       <c r="M16">
-        <v>1.014933533334385</v>
+        <v>1.045395145680007</v>
       </c>
       <c r="N16">
-        <v>1.007374423350514</v>
+        <v>1.031838579778743</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9790092719909246</v>
+        <v>1.024376885921173</v>
       </c>
       <c r="D17">
-        <v>1.005203463901599</v>
+        <v>1.034469234556672</v>
       </c>
       <c r="E17">
-        <v>0.9893761891725836</v>
+        <v>1.024933720269798</v>
       </c>
       <c r="F17">
-        <v>1.002732202521282</v>
+        <v>1.042396619906047</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040593290633828</v>
+        <v>1.032707176089802</v>
       </c>
       <c r="J17">
-        <v>1.00729869661568</v>
+        <v>1.030637581184746</v>
       </c>
       <c r="K17">
-        <v>1.019120868552672</v>
+        <v>1.037840418315619</v>
       </c>
       <c r="L17">
-        <v>1.00357309219919</v>
+        <v>1.028338585926713</v>
       </c>
       <c r="M17">
-        <v>1.016692495324348</v>
+        <v>1.045740318406577</v>
       </c>
       <c r="N17">
-        <v>1.00872917630365</v>
+        <v>1.032101204765811</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9802501268002581</v>
+        <v>1.024611400230794</v>
       </c>
       <c r="D18">
-        <v>1.006197817522045</v>
+        <v>1.034659691983697</v>
       </c>
       <c r="E18">
-        <v>0.990361112476426</v>
+        <v>1.025132631047695</v>
       </c>
       <c r="F18">
-        <v>1.003958555991433</v>
+        <v>1.042640336023963</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040995728651329</v>
+        <v>1.03275936000238</v>
       </c>
       <c r="J18">
-        <v>1.008080599187681</v>
+        <v>1.030790490592242</v>
       </c>
       <c r="K18">
-        <v>1.019910419323254</v>
+        <v>1.03798824215976</v>
       </c>
       <c r="L18">
-        <v>1.004348326095484</v>
+        <v>1.028494374099789</v>
       </c>
       <c r="M18">
-        <v>1.017709307663254</v>
+        <v>1.045941594502449</v>
       </c>
       <c r="N18">
-        <v>1.009512189266989</v>
+        <v>1.032254331322205</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9806713926754056</v>
+        <v>1.024691364715748</v>
       </c>
       <c r="D19">
-        <v>1.006535429390675</v>
+        <v>1.034724625634239</v>
       </c>
       <c r="E19">
-        <v>0.9906956535120163</v>
+        <v>1.025200463593488</v>
       </c>
       <c r="F19">
-        <v>1.004374984653497</v>
+        <v>1.042723439066528</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041132065369119</v>
+        <v>1.032777115098786</v>
       </c>
       <c r="J19">
-        <v>1.008346008313118</v>
+        <v>1.030842618891101</v>
       </c>
       <c r="K19">
-        <v>1.020178355009476</v>
+        <v>1.038038625913463</v>
       </c>
       <c r="L19">
-        <v>1.004611530889285</v>
+        <v>1.028547490186494</v>
       </c>
       <c r="M19">
-        <v>1.018054484592454</v>
+        <v>1.04601021471991</v>
       </c>
       <c r="N19">
-        <v>1.009777975303827</v>
+        <v>1.032306533649227</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9787801483582029</v>
+        <v>1.024333749329409</v>
       </c>
       <c r="D20">
-        <v>1.005019872730299</v>
+        <v>1.03443419783201</v>
       </c>
       <c r="E20">
-        <v>0.9891944015380366</v>
+        <v>1.02489713645631</v>
       </c>
       <c r="F20">
-        <v>1.002505797990065</v>
+        <v>1.042351791178276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040518843014328</v>
+        <v>1.032697559089488</v>
       </c>
       <c r="J20">
-        <v>1.007154297833977</v>
+        <v>1.030609449972072</v>
       </c>
       <c r="K20">
-        <v>1.018975024326386</v>
+        <v>1.037813217571516</v>
       </c>
       <c r="L20">
-        <v>1.003429953265327</v>
+        <v>1.028309928131727</v>
       </c>
       <c r="M20">
-        <v>1.016504728602936</v>
+        <v>1.045703290566103</v>
       </c>
       <c r="N20">
-        <v>1.008584572459114</v>
+        <v>1.032073033603589</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9724998476660721</v>
+        <v>1.023171187055309</v>
       </c>
       <c r="D21">
-        <v>0.9999898249219044</v>
+        <v>1.033489477878833</v>
       </c>
       <c r="E21">
-        <v>0.9842210322660639</v>
+        <v>1.023911624227818</v>
       </c>
       <c r="F21">
-        <v>0.9963051041271813</v>
+        <v>1.04114367742025</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038462388612639</v>
+        <v>1.032436264379746</v>
       </c>
       <c r="J21">
-        <v>1.00319409742969</v>
+        <v>1.029850713273543</v>
       </c>
       <c r="K21">
-        <v>1.014971390076036</v>
+        <v>1.037078984294272</v>
       </c>
       <c r="L21">
-        <v>0.999507637816386</v>
+        <v>1.027537339157487</v>
       </c>
       <c r="M21">
-        <v>1.011356817198245</v>
+        <v>1.044704777414507</v>
       </c>
       <c r="N21">
-        <v>1.004618748116012</v>
+        <v>1.031313219411919</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9684444817399734</v>
+        <v>1.022440298251469</v>
       </c>
       <c r="D22">
-        <v>0.9967443830490628</v>
+        <v>1.032895105991303</v>
       </c>
       <c r="E22">
-        <v>0.981019208928801</v>
+        <v>1.023292481962781</v>
       </c>
       <c r="F22">
-        <v>0.9923064149551539</v>
+        <v>1.040384203906783</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037119361645466</v>
+        <v>1.032269948023663</v>
       </c>
       <c r="J22">
-        <v>1.000634990582108</v>
+        <v>1.029373143876038</v>
       </c>
       <c r="K22">
-        <v>1.012380611414941</v>
+        <v>1.036616264614913</v>
       </c>
       <c r="L22">
-        <v>0.9969762954913751</v>
+        <v>1.027051390533896</v>
       </c>
       <c r="M22">
-        <v>1.008031839657393</v>
+        <v>1.044076458004796</v>
       </c>
       <c r="N22">
-        <v>1.002056007043172</v>
+        <v>1.030834971811092</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9706048091995354</v>
+        <v>1.022827750591637</v>
       </c>
       <c r="D23">
-        <v>0.9984729780860657</v>
+        <v>1.033210230463649</v>
       </c>
       <c r="E23">
-        <v>0.9827239118137765</v>
+        <v>1.023620654523751</v>
       </c>
       <c r="F23">
-        <v>0.9944360300046856</v>
+        <v>1.040786804169191</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037836198611165</v>
+        <v>1.032358307790217</v>
       </c>
       <c r="J23">
-        <v>1.001998405839369</v>
+        <v>1.029626361804351</v>
       </c>
       <c r="K23">
-        <v>1.013761231933562</v>
+        <v>1.036861663138722</v>
       </c>
       <c r="L23">
-        <v>0.9983246077191561</v>
+        <v>1.02730901911408</v>
       </c>
       <c r="M23">
-        <v>1.009803133842254</v>
+        <v>1.044409590700712</v>
       </c>
       <c r="N23">
-        <v>1.003421358506485</v>
+        <v>1.031088549337908</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.978883713368335</v>
+        <v>1.024353240877119</v>
       </c>
       <c r="D24">
-        <v>1.005102856209078</v>
+        <v>1.034450029554378</v>
       </c>
       <c r="E24">
-        <v>0.9892765674247193</v>
+        <v>1.024913666940598</v>
       </c>
       <c r="F24">
-        <v>1.002608132350735</v>
+        <v>1.042372047311416</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040552498964377</v>
+        <v>1.032701905294896</v>
       </c>
       <c r="J24">
-        <v>1.007219567573273</v>
+        <v>1.030622161435542</v>
       </c>
       <c r="K24">
-        <v>1.019040948683233</v>
+        <v>1.037825508787489</v>
       </c>
       <c r="L24">
-        <v>1.003494652453781</v>
+        <v>1.02832287742205</v>
       </c>
       <c r="M24">
-        <v>1.016589600550072</v>
+        <v>1.045720022030352</v>
       </c>
       <c r="N24">
-        <v>1.008649934888927</v>
+        <v>1.032085763118795</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9880627013088348</v>
+        <v>1.026123756246623</v>
       </c>
       <c r="D25">
-        <v>1.012461202012617</v>
+        <v>1.035887035343296</v>
       </c>
       <c r="E25">
-        <v>0.9965788918974463</v>
+        <v>1.026416244684651</v>
       </c>
       <c r="F25">
-        <v>1.011688435915285</v>
+        <v>1.044212130240834</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043498730595441</v>
+        <v>1.033091781384176</v>
       </c>
       <c r="J25">
-        <v>1.012998591532699</v>
+        <v>1.031775452411092</v>
       </c>
       <c r="K25">
-        <v>1.024869105370573</v>
+        <v>1.038939291124679</v>
       </c>
       <c r="L25">
-        <v>1.009230549332027</v>
+        <v>1.029498559439689</v>
       </c>
       <c r="M25">
-        <v>1.024107973746579</v>
+        <v>1.047238455166822</v>
       </c>
       <c r="N25">
-        <v>1.014437165725238</v>
+        <v>1.033240691899814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_150/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027536138225185</v>
+        <v>0.9950742348265826</v>
       </c>
       <c r="D2">
-        <v>1.03703178602837</v>
+        <v>1.018084990881439</v>
       </c>
       <c r="E2">
-        <v>1.027616377726966</v>
+        <v>1.002183949171251</v>
       </c>
       <c r="F2">
-        <v>1.045680168218227</v>
+        <v>1.018638177685964</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033395596577766</v>
+        <v>1.045694475948195</v>
       </c>
       <c r="J2">
-        <v>1.032693466908313</v>
+        <v>1.017403279511109</v>
       </c>
       <c r="K2">
-        <v>1.039823830686133</v>
+        <v>1.029297993980548</v>
       </c>
       <c r="L2">
-        <v>1.030435586947912</v>
+        <v>1.013612941735558</v>
       </c>
       <c r="M2">
-        <v>1.048447729035884</v>
+        <v>1.02984381903906</v>
       </c>
       <c r="N2">
-        <v>1.034160010082935</v>
+        <v>1.018848108865795</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02856178734663</v>
+        <v>1.000001494474635</v>
       </c>
       <c r="D3">
-        <v>1.037862154393593</v>
+        <v>1.022037333046122</v>
       </c>
       <c r="E3">
-        <v>1.02848874713559</v>
+        <v>1.006137245448675</v>
       </c>
       <c r="F3">
-        <v>1.046746319299607</v>
+        <v>1.023528899681193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033612040794812</v>
+        <v>1.047204631626294</v>
       </c>
       <c r="J3">
-        <v>1.033358951479768</v>
+        <v>1.020492118749274</v>
       </c>
       <c r="K3">
-        <v>1.040463868273384</v>
+        <v>1.032395797886915</v>
       </c>
       <c r="L3">
-        <v>1.031115544414634</v>
+        <v>1.016692196754573</v>
       </c>
       <c r="M3">
-        <v>1.049324706848221</v>
+        <v>1.033869321328321</v>
       </c>
       <c r="N3">
-        <v>1.034826439718798</v>
+        <v>1.02194133460998</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02922551471639</v>
+        <v>1.003118743991645</v>
       </c>
       <c r="D4">
-        <v>1.038399074575252</v>
+        <v>1.024537498465492</v>
       </c>
       <c r="E4">
-        <v>1.02905367275519</v>
+        <v>1.008644617378002</v>
       </c>
       <c r="F4">
-        <v>1.047436293695722</v>
+        <v>1.026625925354654</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033750170930674</v>
+        <v>1.048144440768043</v>
       </c>
       <c r="J4">
-        <v>1.033789065491503</v>
+        <v>1.022443007035521</v>
       </c>
       <c r="K4">
-        <v>1.04087698736079</v>
+        <v>1.034348529633989</v>
       </c>
       <c r="L4">
-        <v>1.031555331864551</v>
+        <v>1.018639817204713</v>
       </c>
       <c r="M4">
-        <v>1.049891677100311</v>
+        <v>1.036413278131544</v>
       </c>
       <c r="N4">
-        <v>1.035257164541764</v>
+        <v>1.023894993381364</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02950456089175</v>
+        <v>1.004412892576868</v>
       </c>
       <c r="D5">
-        <v>1.038624703213781</v>
+        <v>1.025575326136572</v>
       </c>
       <c r="E5">
-        <v>1.029291273152465</v>
+        <v>1.00968703228757</v>
       </c>
       <c r="F5">
-        <v>1.04772638320882</v>
+        <v>1.027912330503855</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033807779846842</v>
+        <v>1.048530809882156</v>
       </c>
       <c r="J5">
-        <v>1.033969765531233</v>
+        <v>1.023252106751604</v>
       </c>
       <c r="K5">
-        <v>1.041050415937733</v>
+        <v>1.035157460371423</v>
       </c>
       <c r="L5">
-        <v>1.031740172404873</v>
+        <v>1.019448228741749</v>
       </c>
       <c r="M5">
-        <v>1.050129912852077</v>
+        <v>1.0374687004199</v>
       </c>
       <c r="N5">
-        <v>1.035438121196277</v>
+        <v>1.024705242111848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029551414860641</v>
+        <v>1.004629245911791</v>
       </c>
       <c r="D6">
-        <v>1.038662581802521</v>
+        <v>1.02574881857225</v>
       </c>
       <c r="E6">
-        <v>1.029331173480751</v>
+        <v>1.009861385731334</v>
       </c>
       <c r="F6">
-        <v>1.047775091924488</v>
+        <v>1.02812742650952</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033817425591485</v>
+        <v>1.048595177326464</v>
       </c>
       <c r="J6">
-        <v>1.034000098820054</v>
+        <v>1.023387320869177</v>
       </c>
       <c r="K6">
-        <v>1.041079520876213</v>
+        <v>1.035292590855892</v>
       </c>
       <c r="L6">
-        <v>1.031771205226848</v>
+        <v>1.019583367050829</v>
       </c>
       <c r="M6">
-        <v>1.050169906716816</v>
+        <v>1.037645100213981</v>
       </c>
       <c r="N6">
-        <v>1.035468497561848</v>
+        <v>1.024840648248978</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029229243285471</v>
+        <v>1.003136099840789</v>
       </c>
       <c r="D7">
-        <v>1.038402089801005</v>
+        <v>1.024551417400602</v>
       </c>
       <c r="E7">
-        <v>1.029056847169012</v>
+        <v>1.008658591512963</v>
       </c>
       <c r="F7">
-        <v>1.047440169791202</v>
+        <v>1.026643174830374</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033750942515791</v>
+        <v>1.048149637460767</v>
       </c>
       <c r="J7">
-        <v>1.033791480485916</v>
+        <v>1.022453861199452</v>
       </c>
       <c r="K7">
-        <v>1.040879305691977</v>
+        <v>1.034359385244695</v>
       </c>
       <c r="L7">
-        <v>1.031557801894689</v>
+        <v>1.018650659500475</v>
       </c>
       <c r="M7">
-        <v>1.049894860884532</v>
+        <v>1.036427435326716</v>
       </c>
       <c r="N7">
-        <v>1.035259582965746</v>
+        <v>1.023905862959453</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027882747885628</v>
+        <v>0.9967545382528861</v>
       </c>
       <c r="D8">
-        <v>1.037312491897222</v>
+        <v>1.019432849996824</v>
       </c>
       <c r="E8">
-        <v>1.027911106646042</v>
+        <v>1.003530753996797</v>
       </c>
       <c r="F8">
-        <v>1.046040457288618</v>
+        <v>1.0203053879501</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033469142973107</v>
+        <v>1.046212711645016</v>
       </c>
       <c r="J8">
-        <v>1.032918473601526</v>
+        <v>1.018457305160775</v>
       </c>
       <c r="K8">
-        <v>1.040040346901974</v>
+        <v>1.030355870802979</v>
       </c>
       <c r="L8">
-        <v>1.030665420903161</v>
+        <v>1.014663110443005</v>
       </c>
       <c r="M8">
-        <v>1.048744209575271</v>
+        <v>1.031217158868416</v>
       </c>
       <c r="N8">
-        <v>1.034385336311445</v>
+        <v>1.01990363135279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025510542735222</v>
+        <v>0.9849339055913314</v>
       </c>
       <c r="D9">
-        <v>1.035389575205952</v>
+        <v>1.009952322483036</v>
       </c>
       <c r="E9">
-        <v>1.025895598241836</v>
+        <v>0.9940853275436007</v>
       </c>
       <c r="F9">
-        <v>1.043574796385689</v>
+        <v>1.008590986576471</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032957861726546</v>
+        <v>1.042502966823821</v>
       </c>
       <c r="J9">
-        <v>1.031376320476801</v>
+        <v>1.011030138792206</v>
       </c>
       <c r="K9">
-        <v>1.038554145554468</v>
+        <v>1.022885967793453</v>
       </c>
       <c r="L9">
-        <v>1.029091494075282</v>
+        <v>1.007275100667184</v>
       </c>
       <c r="M9">
-        <v>1.046712860598336</v>
+        <v>1.021546201941882</v>
       </c>
       <c r="N9">
-        <v>1.032840993152395</v>
+        <v>1.012465917556069</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023929404168148</v>
+        <v>0.9766190002439726</v>
       </c>
       <c r="D10">
-        <v>1.034105718274481</v>
+        <v>1.003288459119022</v>
       </c>
       <c r="E10">
-        <v>1.024554272497425</v>
+        <v>0.9874809349985566</v>
       </c>
       <c r="F10">
-        <v>1.041931591383823</v>
+        <v>1.000370935288928</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032607138812895</v>
+        <v>1.039814578065238</v>
       </c>
       <c r="J10">
-        <v>1.030345683711826</v>
+        <v>1.005791995672029</v>
       </c>
       <c r="K10">
-        <v>1.037558098574937</v>
+        <v>1.017598592179815</v>
       </c>
       <c r="L10">
-        <v>1.028041270017525</v>
+        <v>1.002079964743779</v>
       </c>
       <c r="M10">
-        <v>1.045356130091488</v>
+        <v>1.014733495612777</v>
       </c>
       <c r="N10">
-        <v>1.031808892764998</v>
+        <v>1.007220335671837</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023244831464019</v>
+        <v>0.9729038077273265</v>
       </c>
       <c r="D11">
-        <v>1.033549348352498</v>
+        <v>1.000313227198662</v>
       </c>
       <c r="E11">
-        <v>1.023974027653235</v>
+        <v>0.9845403819123217</v>
       </c>
       <c r="F11">
-        <v>1.041220204313176</v>
+        <v>0.9967036467938035</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032452935871061</v>
+        <v>1.038595545518602</v>
       </c>
       <c r="J11">
-        <v>1.029898809474999</v>
+        <v>1.003448940610968</v>
       </c>
       <c r="K11">
-        <v>1.037125560720466</v>
+        <v>1.015229238930015</v>
       </c>
       <c r="L11">
-        <v>1.027586293624291</v>
+        <v>0.9997598540751186</v>
       </c>
       <c r="M11">
-        <v>1.044768062973063</v>
+        <v>1.011687996400789</v>
       </c>
       <c r="N11">
-        <v>1.031361383915498</v>
+        <v>1.004873953203838</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022990561110058</v>
+        <v>0.9715054841606262</v>
       </c>
       <c r="D12">
-        <v>1.033342620518029</v>
+        <v>0.9991938468636898</v>
       </c>
       <c r="E12">
-        <v>1.023758583251224</v>
+        <v>0.983435259153314</v>
       </c>
       <c r="F12">
-        <v>1.040955983437414</v>
+        <v>0.9953242512502112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032395307141101</v>
+        <v>1.038134126194366</v>
       </c>
       <c r="J12">
-        <v>1.029732730326469</v>
+        <v>1.002566731469566</v>
       </c>
       <c r="K12">
-        <v>1.036964710536664</v>
+        <v>1.014336507809433</v>
       </c>
       <c r="L12">
-        <v>1.027417262046651</v>
+        <v>0.9988868464252585</v>
       </c>
       <c r="M12">
-        <v>1.044549539703221</v>
+        <v>1.010541582844049</v>
       </c>
       <c r="N12">
-        <v>1.031195068915527</v>
+        <v>1.003990491224264</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023045102495379</v>
+        <v>0.9718062775354505</v>
       </c>
       <c r="D13">
-        <v>1.033386967375862</v>
+        <v>0.9994346153870568</v>
       </c>
       <c r="E13">
-        <v>1.02380479298053</v>
+        <v>0.9836729065018051</v>
       </c>
       <c r="F13">
-        <v>1.041012658806033</v>
+        <v>0.9956209313134136</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032407684572998</v>
+        <v>1.038233498243126</v>
       </c>
       <c r="J13">
-        <v>1.029768358943694</v>
+        <v>1.002756517411775</v>
       </c>
       <c r="K13">
-        <v>1.036999221874658</v>
+        <v>1.014528584945622</v>
       </c>
       <c r="L13">
-        <v>1.02745352138582</v>
+        <v>0.999074627388413</v>
       </c>
       <c r="M13">
-        <v>1.04459641770781</v>
+        <v>1.010788193300425</v>
       </c>
       <c r="N13">
-        <v>1.031230748129476</v>
+        <v>1.004180546684279</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02322381318564</v>
+        <v>0.9727886025305447</v>
       </c>
       <c r="D14">
-        <v>1.033532261534441</v>
+        <v>1.000220994137144</v>
       </c>
       <c r="E14">
-        <v>1.023956217227633</v>
+        <v>0.9844492990969408</v>
       </c>
       <c r="F14">
-        <v>1.041198363324944</v>
+        <v>0.9965899823894069</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032448179418586</v>
+        <v>1.038557582419454</v>
       </c>
       <c r="J14">
-        <v>1.029885083158627</v>
+        <v>1.003376263451571</v>
       </c>
       <c r="K14">
-        <v>1.037112268593778</v>
+        <v>1.015155707426932</v>
       </c>
       <c r="L14">
-        <v>1.027572322094416</v>
+        <v>0.9996879234832351</v>
       </c>
       <c r="M14">
-        <v>1.044750001584641</v>
+        <v>1.011593548153072</v>
       </c>
       <c r="N14">
-        <v>1.031347638106183</v>
+        <v>1.004801172834538</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023333924116115</v>
+        <v>0.973391381594245</v>
       </c>
       <c r="D15">
-        <v>1.033621773162674</v>
+        <v>1.000703596307634</v>
       </c>
       <c r="E15">
-        <v>1.02404952589924</v>
+        <v>0.984925931941104</v>
       </c>
       <c r="F15">
-        <v>1.04131278465826</v>
+        <v>0.9971847366814124</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032473083142031</v>
+        <v>1.038756108312239</v>
       </c>
       <c r="J15">
-        <v>1.029956988859914</v>
+        <v>1.003756513319968</v>
       </c>
       <c r="K15">
-        <v>1.037181895724155</v>
+        <v>1.015540402131886</v>
       </c>
       <c r="L15">
-        <v>1.027645514757383</v>
+        <v>1.000064290222945</v>
       </c>
       <c r="M15">
-        <v>1.044844617899943</v>
+        <v>1.012087716669072</v>
       </c>
       <c r="N15">
-        <v>1.031419645921813</v>
+        <v>1.005181962701363</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023974838477318</v>
+        <v>0.9768630558833328</v>
       </c>
       <c r="D16">
-        <v>1.034142633250043</v>
+        <v>1.003483960898855</v>
       </c>
       <c r="E16">
-        <v>1.024592793239414</v>
+        <v>0.9876743262765608</v>
       </c>
       <c r="F16">
-        <v>1.041978806588915</v>
+        <v>1.000611964597477</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032617323529973</v>
+        <v>1.039894293427708</v>
       </c>
       <c r="J16">
-        <v>1.030375328626391</v>
+        <v>1.005945864838838</v>
       </c>
       <c r="K16">
-        <v>1.037586778532381</v>
+        <v>1.017754101282636</v>
       </c>
       <c r="L16">
-        <v>1.02807146064412</v>
+        <v>1.00223240469071</v>
       </c>
       <c r="M16">
-        <v>1.045395145680007</v>
+        <v>1.014933533334383</v>
       </c>
       <c r="N16">
-        <v>1.031838579778743</v>
+        <v>1.007374423350513</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024376885921173</v>
+        <v>0.9790092719909224</v>
       </c>
       <c r="D17">
-        <v>1.034469234556672</v>
+        <v>1.005203463901598</v>
       </c>
       <c r="E17">
-        <v>1.024933720269798</v>
+        <v>0.9893761891725815</v>
       </c>
       <c r="F17">
-        <v>1.042396619906047</v>
+        <v>1.002732202521281</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032707176089802</v>
+        <v>1.040593290633827</v>
       </c>
       <c r="J17">
-        <v>1.030637581184746</v>
+        <v>1.007298696615679</v>
       </c>
       <c r="K17">
-        <v>1.037840418315619</v>
+        <v>1.019120868552671</v>
       </c>
       <c r="L17">
-        <v>1.028338585926713</v>
+        <v>1.003573092199189</v>
       </c>
       <c r="M17">
-        <v>1.045740318406577</v>
+        <v>1.016692495324346</v>
       </c>
       <c r="N17">
-        <v>1.032101204765811</v>
+        <v>1.008729176303648</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024611400230794</v>
+        <v>0.9802501268002585</v>
       </c>
       <c r="D18">
-        <v>1.034659691983697</v>
+        <v>1.006197817522046</v>
       </c>
       <c r="E18">
-        <v>1.025132631047695</v>
+        <v>0.9903611124764264</v>
       </c>
       <c r="F18">
-        <v>1.042640336023963</v>
+        <v>1.003958555991433</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03275936000238</v>
+        <v>1.040995728651329</v>
       </c>
       <c r="J18">
-        <v>1.030790490592242</v>
+        <v>1.008080599187682</v>
       </c>
       <c r="K18">
-        <v>1.03798824215976</v>
+        <v>1.019910419323254</v>
       </c>
       <c r="L18">
-        <v>1.028494374099789</v>
+        <v>1.004348326095484</v>
       </c>
       <c r="M18">
-        <v>1.045941594502449</v>
+        <v>1.017709307663255</v>
       </c>
       <c r="N18">
-        <v>1.032254331322205</v>
+        <v>1.009512189266989</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024691364715748</v>
+        <v>0.9806713926754057</v>
       </c>
       <c r="D19">
-        <v>1.034724625634239</v>
+        <v>1.006535429390675</v>
       </c>
       <c r="E19">
-        <v>1.025200463593488</v>
+        <v>0.9906956535120162</v>
       </c>
       <c r="F19">
-        <v>1.042723439066528</v>
+        <v>1.004374984653497</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032777115098786</v>
+        <v>1.04113206536912</v>
       </c>
       <c r="J19">
-        <v>1.030842618891101</v>
+        <v>1.008346008313119</v>
       </c>
       <c r="K19">
-        <v>1.038038625913463</v>
+        <v>1.020178355009476</v>
       </c>
       <c r="L19">
-        <v>1.028547490186494</v>
+        <v>1.004611530889285</v>
       </c>
       <c r="M19">
-        <v>1.04601021471991</v>
+        <v>1.018054484592454</v>
       </c>
       <c r="N19">
-        <v>1.032306533649227</v>
+        <v>1.009777975303827</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024333749329409</v>
+        <v>0.9787801483582032</v>
       </c>
       <c r="D20">
-        <v>1.03443419783201</v>
+        <v>1.005019872730299</v>
       </c>
       <c r="E20">
-        <v>1.02489713645631</v>
+        <v>0.9891944015380364</v>
       </c>
       <c r="F20">
-        <v>1.042351791178276</v>
+        <v>1.002505797990065</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032697559089488</v>
+        <v>1.040518843014328</v>
       </c>
       <c r="J20">
-        <v>1.030609449972072</v>
+        <v>1.007154297833977</v>
       </c>
       <c r="K20">
-        <v>1.037813217571516</v>
+        <v>1.018975024326386</v>
       </c>
       <c r="L20">
-        <v>1.028309928131727</v>
+        <v>1.003429953265328</v>
       </c>
       <c r="M20">
-        <v>1.045703290566103</v>
+        <v>1.016504728602936</v>
       </c>
       <c r="N20">
-        <v>1.032073033603589</v>
+        <v>1.008584572459114</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023171187055309</v>
+        <v>0.9724998476660719</v>
       </c>
       <c r="D21">
-        <v>1.033489477878833</v>
+        <v>0.999989824921904</v>
       </c>
       <c r="E21">
-        <v>1.023911624227818</v>
+        <v>0.9842210322660633</v>
       </c>
       <c r="F21">
-        <v>1.04114367742025</v>
+        <v>0.9963051041271809</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032436264379746</v>
+        <v>1.038462388612639</v>
       </c>
       <c r="J21">
-        <v>1.029850713273543</v>
+        <v>1.00319409742969</v>
       </c>
       <c r="K21">
-        <v>1.037078984294272</v>
+        <v>1.014971390076036</v>
       </c>
       <c r="L21">
-        <v>1.027537339157487</v>
+        <v>0.9995076378163854</v>
       </c>
       <c r="M21">
-        <v>1.044704777414507</v>
+        <v>1.011356817198244</v>
       </c>
       <c r="N21">
-        <v>1.031313219411919</v>
+        <v>1.004618748116012</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022440298251469</v>
+        <v>0.9684444817399737</v>
       </c>
       <c r="D22">
-        <v>1.032895105991303</v>
+        <v>0.9967443830490637</v>
       </c>
       <c r="E22">
-        <v>1.023292481962781</v>
+        <v>0.9810192089288012</v>
       </c>
       <c r="F22">
-        <v>1.040384203906783</v>
+        <v>0.9923064149551546</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032269948023663</v>
+        <v>1.037119361645467</v>
       </c>
       <c r="J22">
-        <v>1.029373143876038</v>
+        <v>1.000634990582108</v>
       </c>
       <c r="K22">
-        <v>1.036616264614913</v>
+        <v>1.012380611414942</v>
       </c>
       <c r="L22">
-        <v>1.027051390533896</v>
+        <v>0.9969762954913752</v>
       </c>
       <c r="M22">
-        <v>1.044076458004796</v>
+        <v>1.008031839657394</v>
       </c>
       <c r="N22">
-        <v>1.030834971811092</v>
+        <v>1.002056007043172</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022827750591637</v>
+        <v>0.9706048091995358</v>
       </c>
       <c r="D23">
-        <v>1.033210230463649</v>
+        <v>0.9984729780860666</v>
       </c>
       <c r="E23">
-        <v>1.023620654523751</v>
+        <v>0.9827239118137769</v>
       </c>
       <c r="F23">
-        <v>1.040786804169191</v>
+        <v>0.9944360300046866</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032358307790217</v>
+        <v>1.037836198611165</v>
       </c>
       <c r="J23">
-        <v>1.029626361804351</v>
+        <v>1.00199840583937</v>
       </c>
       <c r="K23">
-        <v>1.036861663138722</v>
+        <v>1.013761231933563</v>
       </c>
       <c r="L23">
-        <v>1.02730901911408</v>
+        <v>0.9983246077191563</v>
       </c>
       <c r="M23">
-        <v>1.044409590700712</v>
+        <v>1.009803133842255</v>
       </c>
       <c r="N23">
-        <v>1.031088549337908</v>
+        <v>1.003421358506485</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024353240877119</v>
+        <v>0.9788837133683346</v>
       </c>
       <c r="D24">
-        <v>1.034450029554378</v>
+        <v>1.005102856209078</v>
       </c>
       <c r="E24">
-        <v>1.024913666940598</v>
+        <v>0.9892765674247184</v>
       </c>
       <c r="F24">
-        <v>1.042372047311416</v>
+        <v>1.002608132350735</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032701905294896</v>
+        <v>1.040552498964377</v>
       </c>
       <c r="J24">
-        <v>1.030622161435542</v>
+        <v>1.007219567573273</v>
       </c>
       <c r="K24">
-        <v>1.037825508787489</v>
+        <v>1.019040948683233</v>
       </c>
       <c r="L24">
-        <v>1.02832287742205</v>
+        <v>1.00349465245378</v>
       </c>
       <c r="M24">
-        <v>1.045720022030352</v>
+        <v>1.016589600550071</v>
       </c>
       <c r="N24">
-        <v>1.032085763118795</v>
+        <v>1.008649934888926</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026123756246623</v>
+        <v>0.9880627013088332</v>
       </c>
       <c r="D25">
-        <v>1.035887035343296</v>
+        <v>1.012461202012615</v>
       </c>
       <c r="E25">
-        <v>1.026416244684651</v>
+        <v>0.9965788918974448</v>
       </c>
       <c r="F25">
-        <v>1.044212130240834</v>
+        <v>1.011688435915284</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033091781384176</v>
+        <v>1.04349873059544</v>
       </c>
       <c r="J25">
-        <v>1.031775452411092</v>
+        <v>1.012998591532697</v>
       </c>
       <c r="K25">
-        <v>1.038939291124679</v>
+        <v>1.024869105370571</v>
       </c>
       <c r="L25">
-        <v>1.029498559439689</v>
+        <v>1.009230549332025</v>
       </c>
       <c r="M25">
-        <v>1.047238455166822</v>
+        <v>1.024107973746577</v>
       </c>
       <c r="N25">
-        <v>1.033240691899814</v>
+        <v>1.014437165725236</v>
       </c>
     </row>
   </sheetData>
